--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ntrk3</t>
   </si>
   <si>
     <t>Ptprf</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02354</v>
+        <v>0.002145666666666667</v>
       </c>
       <c r="H2">
-        <v>0.07062</v>
+        <v>0.006437</v>
       </c>
       <c r="I2">
-        <v>0.01363425747161943</v>
+        <v>0.00807320947388686</v>
       </c>
       <c r="J2">
-        <v>0.01984867005197698</v>
+        <v>0.008843624333499573</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3105913333333333</v>
+        <v>0.1255626666666667</v>
       </c>
       <c r="N2">
-        <v>0.931774</v>
+        <v>0.376688</v>
       </c>
       <c r="O2">
-        <v>0.03128659259739168</v>
+        <v>0.02744849445093922</v>
       </c>
       <c r="P2">
-        <v>0.03928326902580845</v>
+        <v>0.02907345870642374</v>
       </c>
       <c r="Q2">
-        <v>0.007311319986666667</v>
+        <v>0.0002694156284444445</v>
       </c>
       <c r="R2">
-        <v>0.06580187988</v>
+        <v>0.002424740656</v>
       </c>
       <c r="S2">
-        <v>0.0004265694588825007</v>
+        <v>0.0002215974454452534</v>
       </c>
       <c r="T2">
-        <v>0.0007797206454563192</v>
+        <v>0.000257114746875124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02354</v>
+        <v>0.002145666666666667</v>
       </c>
       <c r="H3">
-        <v>0.07062</v>
+        <v>0.006437</v>
       </c>
       <c r="I3">
-        <v>0.01363425747161943</v>
+        <v>0.00807320947388686</v>
       </c>
       <c r="J3">
-        <v>0.01984867005197698</v>
+        <v>0.008843624333499573</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.393572666666667</v>
+        <v>3.393572666666666</v>
       </c>
       <c r="N3">
         <v>10.180718</v>
       </c>
       <c r="O3">
-        <v>0.3418425244908446</v>
+        <v>0.7418483772500767</v>
       </c>
       <c r="P3">
-        <v>0.4292155437583476</v>
+        <v>0.7857661629113346</v>
       </c>
       <c r="Q3">
-        <v>0.07988470057333334</v>
+        <v>0.007281475751777777</v>
       </c>
       <c r="R3">
-        <v>0.71896230516</v>
+        <v>0.065533281766</v>
       </c>
       <c r="S3">
-        <v>0.004660768993656547</v>
+        <v>0.005989097347402913</v>
       </c>
       <c r="T3">
-        <v>0.00851935770923933</v>
+        <v>0.006949020758763269</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02354</v>
+        <v>0.002145666666666667</v>
       </c>
       <c r="H4">
-        <v>0.07062</v>
+        <v>0.006437</v>
       </c>
       <c r="I4">
-        <v>0.01363425747161943</v>
+        <v>0.00807320947388686</v>
       </c>
       <c r="J4">
-        <v>0.01984867005197698</v>
+        <v>0.008843624333499573</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1456443333333333</v>
+        <v>0.2723486666666667</v>
       </c>
       <c r="N4">
-        <v>0.436933</v>
+        <v>0.8170460000000001</v>
       </c>
       <c r="O4">
-        <v>0.01467109488283225</v>
+        <v>0.05953649332381727</v>
       </c>
       <c r="P4">
-        <v>0.01842094390405137</v>
+        <v>0.06306108275880487</v>
       </c>
       <c r="Q4">
-        <v>0.003428467606666667</v>
+        <v>0.0005843694557777779</v>
       </c>
       <c r="R4">
-        <v>0.03085620846</v>
+        <v>0.005259325102</v>
       </c>
       <c r="S4">
-        <v>0.0002000294850230932</v>
+        <v>0.0004806505819438434</v>
       </c>
       <c r="T4">
-        <v>0.0003656312375974924</v>
+        <v>0.0005576885259825972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02354</v>
+        <v>0.002145666666666667</v>
       </c>
       <c r="H5">
-        <v>0.07062</v>
+        <v>0.006437</v>
       </c>
       <c r="I5">
-        <v>0.01363425747161943</v>
+        <v>0.00807320947388686</v>
       </c>
       <c r="J5">
-        <v>0.01984867005197698</v>
+        <v>0.008843624333499573</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.0625345</v>
+        <v>0.7670265000000001</v>
       </c>
       <c r="N5">
-        <v>12.125069</v>
+        <v>1.534053</v>
       </c>
       <c r="O5">
-        <v>0.6106933022679266</v>
+        <v>0.167675019875653</v>
       </c>
       <c r="P5">
-        <v>0.5111887082956706</v>
+        <v>0.1184009752075072</v>
       </c>
       <c r="Q5">
-        <v>0.14271206213</v>
+        <v>0.0016457831935</v>
       </c>
       <c r="R5">
-        <v>0.85627237278</v>
+        <v>0.009874699161</v>
       </c>
       <c r="S5">
-        <v>0.008326349719314423</v>
+        <v>0.001353675558994289</v>
       </c>
       <c r="T5">
-        <v>0.01014641600525708</v>
+        <v>0.00104709374545519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02354</v>
+        <v>0.002145666666666667</v>
       </c>
       <c r="H6">
-        <v>0.07062</v>
+        <v>0.006437</v>
       </c>
       <c r="I6">
-        <v>0.01363425747161943</v>
+        <v>0.00807320947388686</v>
       </c>
       <c r="J6">
-        <v>0.01984867005197698</v>
+        <v>0.008843624333499573</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01495533333333333</v>
+        <v>0.01597233333333333</v>
       </c>
       <c r="N6">
-        <v>0.044866</v>
+        <v>0.047917</v>
       </c>
       <c r="O6">
-        <v>0.001506485761004895</v>
+        <v>0.0034916150995138</v>
       </c>
       <c r="P6">
-        <v>0.001891535016121851</v>
+        <v>0.003698320415929645</v>
       </c>
       <c r="Q6">
-        <v>0.0003520485466666667</v>
+        <v>3.427130322222223E-05</v>
       </c>
       <c r="R6">
-        <v>0.00316843692</v>
+        <v>0.000308441729</v>
       </c>
       <c r="S6">
-        <v>2.053981474286927E-05</v>
+        <v>2.818854010056122E-05</v>
       </c>
       <c r="T6">
-        <v>3.754445442676359E-05</v>
+        <v>3.270655642339368E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.106753</v>
       </c>
       <c r="I7">
-        <v>0.02061027878600664</v>
+        <v>0.1338883534202026</v>
       </c>
       <c r="J7">
-        <v>0.0300043199385259</v>
+        <v>0.1466651279282398</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3105913333333333</v>
+        <v>0.1255626666666667</v>
       </c>
       <c r="N7">
-        <v>0.931774</v>
+        <v>0.376688</v>
       </c>
       <c r="O7">
-        <v>0.03128659259739168</v>
+        <v>0.02744849445093922</v>
       </c>
       <c r="P7">
-        <v>0.03928326902580845</v>
+        <v>0.02907345870642374</v>
       </c>
       <c r="Q7">
-        <v>0.01105218553577778</v>
+        <v>0.00446806378488889</v>
       </c>
       <c r="R7">
-        <v>0.09946966982200001</v>
+        <v>0.040212574064</v>
       </c>
       <c r="S7">
-        <v>0.0006448253956964542</v>
+        <v>0.003675033725899819</v>
       </c>
       <c r="T7">
-        <v>0.001178667772081541</v>
+        <v>0.004264062540494036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.106753</v>
       </c>
       <c r="I8">
-        <v>0.02061027878600664</v>
+        <v>0.1338883534202026</v>
       </c>
       <c r="J8">
-        <v>0.0300043199385259</v>
+        <v>0.1466651279282398</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.393572666666667</v>
+        <v>3.393572666666666</v>
       </c>
       <c r="N8">
         <v>10.180718</v>
       </c>
       <c r="O8">
-        <v>0.3418425244908446</v>
+        <v>0.7418483772500767</v>
       </c>
       <c r="P8">
-        <v>0.4292155437583476</v>
+        <v>0.7857661629113346</v>
       </c>
       <c r="Q8">
         <v>0.1207580209615556</v>
@@ -948,10 +948,10 @@
         <v>1.086822188654</v>
       </c>
       <c r="S8">
-        <v>0.007045469730668612</v>
+        <v>0.09932485771746204</v>
       </c>
       <c r="T8">
-        <v>0.01287832049751382</v>
+        <v>0.115244494805073</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,40 +980,40 @@
         <v>0.106753</v>
       </c>
       <c r="I9">
-        <v>0.02061027878600664</v>
+        <v>0.1338883534202026</v>
       </c>
       <c r="J9">
-        <v>0.0300043199385259</v>
+        <v>0.1466651279282398</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1456443333333333</v>
+        <v>0.2723486666666667</v>
       </c>
       <c r="N9">
-        <v>0.436933</v>
+        <v>0.8170460000000001</v>
       </c>
       <c r="O9">
-        <v>0.01467109488283225</v>
+        <v>0.05953649332381727</v>
       </c>
       <c r="P9">
-        <v>0.01842094390405137</v>
+        <v>0.06306108275880487</v>
       </c>
       <c r="Q9">
-        <v>0.005182656505444444</v>
+        <v>0.009691345737555557</v>
       </c>
       <c r="R9">
-        <v>0.046643908549</v>
+        <v>0.087222111638</v>
       </c>
       <c r="S9">
-        <v>0.0003023753556311282</v>
+        <v>0.00797124305953878</v>
       </c>
       <c r="T9">
-        <v>0.0005527078944667956</v>
+        <v>0.009248861770113435</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>0.106753</v>
       </c>
       <c r="I10">
-        <v>0.02061027878600664</v>
+        <v>0.1338883534202026</v>
       </c>
       <c r="J10">
-        <v>0.0300043199385259</v>
+        <v>0.1466651279282398</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.0625345</v>
+        <v>0.7670265000000001</v>
       </c>
       <c r="N10">
-        <v>12.125069</v>
+        <v>1.534053</v>
       </c>
       <c r="O10">
-        <v>0.6106933022679266</v>
+        <v>0.167675019875653</v>
       </c>
       <c r="P10">
-        <v>0.5111887082956706</v>
+        <v>0.1184009752075072</v>
       </c>
       <c r="Q10">
-        <v>0.2157312484928333</v>
+        <v>0.02729412665150001</v>
       </c>
       <c r="R10">
-        <v>1.294387490957</v>
+        <v>0.163764759909</v>
       </c>
       <c r="S10">
-        <v>0.01258655921248899</v>
+        <v>0.02244973232085092</v>
       </c>
       <c r="T10">
-        <v>0.01533786955266509</v>
+        <v>0.01736529417563739</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>0.106753</v>
       </c>
       <c r="I11">
-        <v>0.02061027878600664</v>
+        <v>0.1338883534202026</v>
       </c>
       <c r="J11">
-        <v>0.0300043199385259</v>
+        <v>0.1466651279282398</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01495533333333333</v>
+        <v>0.01597233333333333</v>
       </c>
       <c r="N11">
-        <v>0.044866</v>
+        <v>0.047917</v>
       </c>
       <c r="O11">
-        <v>0.001506485761004895</v>
+        <v>0.0034916150995138</v>
       </c>
       <c r="P11">
-        <v>0.001891535016121851</v>
+        <v>0.003698320415929645</v>
       </c>
       <c r="Q11">
-        <v>0.0005321755664444445</v>
+        <v>0.0005683648334444446</v>
       </c>
       <c r="R11">
-        <v>0.004789580097999999</v>
+        <v>0.005115283501</v>
       </c>
       <c r="S11">
-        <v>3.104909152146026E-05</v>
+        <v>0.0004674865964510195</v>
       </c>
       <c r="T11">
-        <v>5.675422179864476E-05</v>
+        <v>0.0005424146369219426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1166,10 +1166,10 @@
         <v>0.13719</v>
       </c>
       <c r="I12">
-        <v>0.02648660128195228</v>
+        <v>0.172062079807758</v>
       </c>
       <c r="J12">
-        <v>0.03855903489706489</v>
+        <v>0.188481718551003</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3105913333333333</v>
+        <v>0.1255626666666667</v>
       </c>
       <c r="N12">
-        <v>0.931774</v>
+        <v>0.376688</v>
       </c>
       <c r="O12">
-        <v>0.03128659259739168</v>
+        <v>0.02744849445093922</v>
       </c>
       <c r="P12">
-        <v>0.03928326902580845</v>
+        <v>0.02907345870642374</v>
       </c>
       <c r="Q12">
-        <v>0.01420334167333333</v>
+        <v>0.005741980746666668</v>
       </c>
       <c r="R12">
-        <v>0.12783007506</v>
+        <v>0.05167782672000001</v>
       </c>
       <c r="S12">
-        <v>0.000828675503597993</v>
+        <v>0.004722845042820306</v>
       </c>
       <c r="T12">
-        <v>0.001514724941236936</v>
+        <v>0.005479815461208367</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1228,10 +1228,10 @@
         <v>0.13719</v>
       </c>
       <c r="I13">
-        <v>0.02648660128195228</v>
+        <v>0.172062079807758</v>
       </c>
       <c r="J13">
-        <v>0.03855903489706489</v>
+        <v>0.188481718551003</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.393572666666667</v>
+        <v>3.393572666666666</v>
       </c>
       <c r="N13">
         <v>10.180718</v>
       </c>
       <c r="O13">
-        <v>0.3418425244908446</v>
+        <v>0.7418483772500767</v>
       </c>
       <c r="P13">
-        <v>0.4292155437583476</v>
+        <v>0.7857661629113346</v>
       </c>
       <c r="Q13">
-        <v>0.1551880780466667</v>
+        <v>0.1551880780466666</v>
       </c>
       <c r="R13">
         <v>1.39669270242</v>
       </c>
       <c r="S13">
-        <v>0.009054246647405008</v>
+        <v>0.1276439746916585</v>
       </c>
       <c r="T13">
-        <v>0.0165501371301408</v>
+        <v>0.1481025567647558</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1290,40 +1290,40 @@
         <v>0.13719</v>
       </c>
       <c r="I14">
-        <v>0.02648660128195228</v>
+        <v>0.172062079807758</v>
       </c>
       <c r="J14">
-        <v>0.03855903489706489</v>
+        <v>0.188481718551003</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1456443333333333</v>
+        <v>0.2723486666666667</v>
       </c>
       <c r="N14">
-        <v>0.436933</v>
+        <v>0.8170460000000001</v>
       </c>
       <c r="O14">
-        <v>0.01467109488283225</v>
+        <v>0.05953649332381727</v>
       </c>
       <c r="P14">
-        <v>0.01842094390405137</v>
+        <v>0.06306108275880487</v>
       </c>
       <c r="Q14">
-        <v>0.006660315363333333</v>
+        <v>0.01245450452666667</v>
       </c>
       <c r="R14">
-        <v>0.05994283827</v>
+        <v>0.11209054074</v>
       </c>
       <c r="S14">
-        <v>0.0003885874405312682</v>
+        <v>0.0102439728657567</v>
       </c>
       <c r="T14">
-        <v>0.0007102938188331915</v>
+        <v>0.01188586125206657</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1352,10 +1352,10 @@
         <v>0.13719</v>
       </c>
       <c r="I15">
-        <v>0.02648660128195228</v>
+        <v>0.172062079807758</v>
       </c>
       <c r="J15">
-        <v>0.03855903489706489</v>
+        <v>0.188481718551003</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.0625345</v>
+        <v>0.7670265000000001</v>
       </c>
       <c r="N15">
-        <v>12.125069</v>
+        <v>1.534053</v>
       </c>
       <c r="O15">
-        <v>0.6106933022679266</v>
+        <v>0.167675019875653</v>
       </c>
       <c r="P15">
-        <v>0.5111887082956706</v>
+        <v>0.1184009752075072</v>
       </c>
       <c r="Q15">
-        <v>0.277239702685</v>
+        <v>0.035076121845</v>
       </c>
       <c r="R15">
-        <v>1.66343821611</v>
+        <v>0.21045673107</v>
       </c>
       <c r="S15">
-        <v>0.01617519000272933</v>
+        <v>0.02885051265161202</v>
       </c>
       <c r="T15">
-        <v>0.01971094324215829</v>
+        <v>0.02231641928522565</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1414,40 +1414,40 @@
         <v>0.13719</v>
       </c>
       <c r="I16">
-        <v>0.02648660128195228</v>
+        <v>0.172062079807758</v>
       </c>
       <c r="J16">
-        <v>0.03855903489706489</v>
+        <v>0.188481718551003</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01495533333333333</v>
+        <v>0.01597233333333333</v>
       </c>
       <c r="N16">
-        <v>0.044866</v>
+        <v>0.047917</v>
       </c>
       <c r="O16">
-        <v>0.001506485761004895</v>
+        <v>0.0034916150995138</v>
       </c>
       <c r="P16">
-        <v>0.001891535016121851</v>
+        <v>0.003698320415929645</v>
       </c>
       <c r="Q16">
-        <v>0.0006839073933333333</v>
+        <v>0.0007304148033333334</v>
       </c>
       <c r="R16">
-        <v>0.00615516654</v>
+        <v>0.006573733230000001</v>
       </c>
       <c r="S16">
-        <v>3.990168768867511E-05</v>
+        <v>0.0006007745559105164</v>
       </c>
       <c r="T16">
-        <v>7.293576469566266E-05</v>
+        <v>0.0006970657877466798</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.621679</v>
+        <v>0.06945950000000001</v>
       </c>
       <c r="H17">
-        <v>3.243358</v>
+        <v>0.138919</v>
       </c>
       <c r="I17">
-        <v>0.9392688624604216</v>
+        <v>0.2613458568206203</v>
       </c>
       <c r="J17">
-        <v>0.9115879751124322</v>
+        <v>0.1908571459974254</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3105913333333333</v>
+        <v>0.1255626666666667</v>
       </c>
       <c r="N17">
-        <v>0.931774</v>
+        <v>0.376688</v>
       </c>
       <c r="O17">
-        <v>0.03128659259739168</v>
+        <v>0.02744849445093922</v>
       </c>
       <c r="P17">
-        <v>0.03928326902580845</v>
+        <v>0.02907345870642374</v>
       </c>
       <c r="Q17">
-        <v>0.5036794428486666</v>
+        <v>0.008721520045333336</v>
       </c>
       <c r="R17">
-        <v>3.022076657092</v>
+        <v>0.05232912027200001</v>
       </c>
       <c r="S17">
-        <v>0.02938652223921473</v>
+        <v>0.007173550300716753</v>
       </c>
       <c r="T17">
-        <v>0.03581015566703365</v>
+        <v>0.005548877352982033</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.621679</v>
+        <v>0.06945950000000001</v>
       </c>
       <c r="H18">
-        <v>3.243358</v>
+        <v>0.138919</v>
       </c>
       <c r="I18">
-        <v>0.9392688624604216</v>
+        <v>0.2613458568206203</v>
       </c>
       <c r="J18">
-        <v>0.9115879751124322</v>
+        <v>0.1908571459974254</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.393572666666667</v>
+        <v>3.393572666666666</v>
       </c>
       <c r="N18">
         <v>10.180718</v>
       </c>
       <c r="O18">
-        <v>0.3418425244908446</v>
+        <v>0.7418483772500767</v>
       </c>
       <c r="P18">
-        <v>0.4292155437583476</v>
+        <v>0.7857661629113346</v>
       </c>
       <c r="Q18">
-        <v>5.503285528507334</v>
+        <v>0.2357158606403333</v>
       </c>
       <c r="R18">
-        <v>33.019713171044</v>
+        <v>1.414295163842</v>
       </c>
       <c r="S18">
-        <v>0.3210820391191144</v>
+        <v>0.1938789997834081</v>
       </c>
       <c r="T18">
-        <v>0.3912677284214536</v>
+        <v>0.1499690872746053</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.621679</v>
+        <v>0.06945950000000001</v>
       </c>
       <c r="H19">
-        <v>3.243358</v>
+        <v>0.138919</v>
       </c>
       <c r="I19">
-        <v>0.9392688624604216</v>
+        <v>0.2613458568206203</v>
       </c>
       <c r="J19">
-        <v>0.9115879751124322</v>
+        <v>0.1908571459974254</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1456443333333333</v>
+        <v>0.2723486666666667</v>
       </c>
       <c r="N19">
-        <v>0.436933</v>
+        <v>0.8170460000000001</v>
       </c>
       <c r="O19">
-        <v>0.01467109488283225</v>
+        <v>0.05953649332381727</v>
       </c>
       <c r="P19">
-        <v>0.01842094390405137</v>
+        <v>0.06306108275880487</v>
       </c>
       <c r="Q19">
-        <v>0.2361883568356666</v>
+        <v>0.01891720221233334</v>
       </c>
       <c r="R19">
-        <v>1.417130141014</v>
+        <v>0.113503213274</v>
       </c>
       <c r="S19">
-        <v>0.01378010260164676</v>
+        <v>0.01555961585980817</v>
       </c>
       <c r="T19">
-        <v>0.01679231095315389</v>
+        <v>0.01203565827885295</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.621679</v>
+        <v>0.06945950000000001</v>
       </c>
       <c r="H20">
-        <v>3.243358</v>
+        <v>0.138919</v>
       </c>
       <c r="I20">
-        <v>0.9392688624604216</v>
+        <v>0.2613458568206203</v>
       </c>
       <c r="J20">
-        <v>0.9115879751124322</v>
+        <v>0.1908571459974254</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.0625345</v>
+        <v>0.7670265000000001</v>
       </c>
       <c r="N20">
-        <v>12.125069</v>
+        <v>1.534053</v>
       </c>
       <c r="O20">
-        <v>0.6106933022679266</v>
+        <v>0.167675019875653</v>
       </c>
       <c r="P20">
-        <v>0.5111887082956706</v>
+        <v>0.1184009752075072</v>
       </c>
       <c r="Q20">
-        <v>9.8314848854255</v>
+        <v>0.05327727717675001</v>
       </c>
       <c r="R20">
-        <v>39.325939541702</v>
+        <v>0.213109108707</v>
       </c>
       <c r="S20">
-        <v>0.5736052033333938</v>
+        <v>0.04382117173681708</v>
       </c>
       <c r="T20">
-        <v>0.4659934794955902</v>
+        <v>0.02259767221141673</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,46 +1718,356 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.621679</v>
+        <v>0.06945950000000001</v>
       </c>
       <c r="H21">
-        <v>3.243358</v>
+        <v>0.138919</v>
       </c>
       <c r="I21">
-        <v>0.9392688624604216</v>
+        <v>0.2613458568206203</v>
       </c>
       <c r="J21">
-        <v>0.9115879751124322</v>
+        <v>0.1908571459974254</v>
       </c>
       <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01597233333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.047917</v>
+      </c>
+      <c r="O21">
+        <v>0.0034916150995138</v>
+      </c>
+      <c r="P21">
+        <v>0.003698320415929645</v>
+      </c>
+      <c r="Q21">
+        <v>0.001109430287166667</v>
+      </c>
+      <c r="R21">
+        <v>0.006656581723000001</v>
+      </c>
+      <c r="S21">
+        <v>0.0009125191398702496</v>
+      </c>
+      <c r="T21">
+        <v>0.0007058508795683432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1128566666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.33857</v>
+      </c>
+      <c r="I22">
+        <v>0.4246305004775321</v>
+      </c>
+      <c r="J22">
+        <v>0.4651523831898322</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1255626666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.376688</v>
+      </c>
+      <c r="O22">
+        <v>0.02744849445093922</v>
+      </c>
+      <c r="P22">
+        <v>0.02907345870642374</v>
+      </c>
+      <c r="Q22">
+        <v>0.01417058401777778</v>
+      </c>
+      <c r="R22">
+        <v>0.12753525616</v>
+      </c>
+      <c r="S22">
+        <v>0.01165546793605708</v>
+      </c>
+      <c r="T22">
+        <v>0.01352358860486418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1128566666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.33857</v>
+      </c>
+      <c r="I23">
+        <v>0.4246305004775321</v>
+      </c>
+      <c r="J23">
+        <v>0.4651523831898322</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.393572666666666</v>
+      </c>
+      <c r="N23">
+        <v>10.180718</v>
+      </c>
+      <c r="O23">
+        <v>0.7418483772500767</v>
+      </c>
+      <c r="P23">
+        <v>0.7857661629113346</v>
+      </c>
+      <c r="Q23">
+        <v>0.382987299251111</v>
+      </c>
+      <c r="R23">
+        <v>3.44688569326</v>
+      </c>
+      <c r="S23">
+        <v>0.3150114477101451</v>
+      </c>
+      <c r="T23">
+        <v>0.3655010033081372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1128566666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.33857</v>
+      </c>
+      <c r="I24">
+        <v>0.4246305004775321</v>
+      </c>
+      <c r="J24">
+        <v>0.4651523831898322</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2723486666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.8170460000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.05953649332381727</v>
+      </c>
+      <c r="P24">
+        <v>0.06306108275880487</v>
+      </c>
+      <c r="Q24">
+        <v>0.03073636269111111</v>
+      </c>
+      <c r="R24">
+        <v>0.27662726422</v>
+      </c>
+      <c r="S24">
+        <v>0.02528101095676978</v>
+      </c>
+      <c r="T24">
+        <v>0.02933301293178932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1128566666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.33857</v>
+      </c>
+      <c r="I25">
+        <v>0.4246305004775321</v>
+      </c>
+      <c r="J25">
+        <v>0.4651523831898322</v>
+      </c>
+      <c r="K25">
         <v>2</v>
       </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.01495533333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.044866</v>
-      </c>
-      <c r="O21">
-        <v>0.001506485761004895</v>
-      </c>
-      <c r="P21">
-        <v>0.001891535016121851</v>
-      </c>
-      <c r="Q21">
-        <v>0.02425275000466666</v>
-      </c>
-      <c r="R21">
-        <v>0.145516500028</v>
-      </c>
-      <c r="S21">
-        <v>0.00141499516705189</v>
-      </c>
-      <c r="T21">
-        <v>0.00172430057520078</v>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.7670265000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.534053</v>
+      </c>
+      <c r="O25">
+        <v>0.167675019875653</v>
+      </c>
+      <c r="P25">
+        <v>0.1184009752075072</v>
+      </c>
+      <c r="Q25">
+        <v>0.086564054035</v>
+      </c>
+      <c r="R25">
+        <v>0.51938432421</v>
+      </c>
+      <c r="S25">
+        <v>0.07119992760737867</v>
+      </c>
+      <c r="T25">
+        <v>0.05507449578977219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1128566666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.33857</v>
+      </c>
+      <c r="I26">
+        <v>0.4246305004775321</v>
+      </c>
+      <c r="J26">
+        <v>0.4651523831898322</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.01597233333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.047917</v>
+      </c>
+      <c r="O26">
+        <v>0.0034916150995138</v>
+      </c>
+      <c r="P26">
+        <v>0.003698320415929645</v>
+      </c>
+      <c r="Q26">
+        <v>0.001802584298888889</v>
+      </c>
+      <c r="R26">
+        <v>0.01622325869</v>
+      </c>
+      <c r="S26">
+        <v>0.001482646267181453</v>
+      </c>
+      <c r="T26">
+        <v>0.001720282555269286</v>
       </c>
     </row>
   </sheetData>
